--- a/biology/Botanique/Jardin_botanique_de_l'Université_de_Ljubljana/Jardin_botanique_de_l'Université_de_Ljubljana.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_l'Université_de_Ljubljana/Jardin_botanique_de_l'Université_de_Ljubljana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27Universit%C3%A9_de_Ljubljana</t>
+          <t>Jardin_botanique_de_l'Université_de_Ljubljana</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le jardin botanique de Ljubljana (en slovène Ljubljanski botanični vrt), officiellement jardin botanique de l'Université de Ljubljana (Botanični vrt Univerze v Ljubljani), est le jardin botanique et arboretum principal de Slovénie, le plus ancien jardin botanique de l'Europe du Sud-Est et une des plus anciennes organisations culturelles, scientifiques et éducatives de Slovénie[1].
-Il est situé dans le district central de la capitale slovène, à la rue d'Ig (Ižanska cesta) le long du canal Gruber au sud de la colline du château[1]. Le jardin a commencé à fonctionner sous la direction de Franz Hladnik (en) en 1810, lorsque Laibach (ancien nom de Ljubljana) était la capitale des Provinces illyriennes[1].
-L'institution est membre du réseau international Botanic Gardens Conservation International et coopère avec plus de 270 jardins botaniques à travers le monde[2]. Son code international est LJU[3].
-Parmi les plus de 4 500 espèces et sous-espèces de plantes présentes sur les 2 hectares du jardin, environ un tiers sont indigènes de Slovénie alors que les autres proviennent d'autres endroit en Europe et d'autres continents[1].
+Le jardin botanique de Ljubljana (en slovène Ljubljanski botanični vrt), officiellement jardin botanique de l'Université de Ljubljana (Botanični vrt Univerze v Ljubljani), est le jardin botanique et arboretum principal de Slovénie, le plus ancien jardin botanique de l'Europe du Sud-Est et une des plus anciennes organisations culturelles, scientifiques et éducatives de Slovénie.
+Il est situé dans le district central de la capitale slovène, à la rue d'Ig (Ižanska cesta) le long du canal Gruber au sud de la colline du château. Le jardin a commencé à fonctionner sous la direction de Franz Hladnik (en) en 1810, lorsque Laibach (ancien nom de Ljubljana) était la capitale des Provinces illyriennes.
+L'institution est membre du réseau international Botanic Gardens Conservation International et coopère avec plus de 270 jardins botaniques à travers le monde. Son code international est LJU.
+Parmi les plus de 4 500 espèces et sous-espèces de plantes présentes sur les 2 hectares du jardin, environ un tiers sont indigènes de Slovénie alors que les autres proviennent d'autres endroit en Europe et d'autres continents.
 </t>
         </is>
       </c>
